--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -451,911 +451,1231 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>004265</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>26.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010147</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道嘉兴一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>240008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝收益增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>270006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发策略优选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009794</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>太平智选一年定期开放股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005489</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>350005</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>天治中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1365,7 +1685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,15 +1706,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003582</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金量化多策略灵活配置混合</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.30</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>010147</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>博道嘉兴一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005006</t>
+          <t>160607</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合C</t>
+          <t>鹏华价值优势混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003858</t>
+          <t>009843</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合C</t>
+          <t>中金泰顺12个月定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004166</t>
+          <t>008467</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合A</t>
+          <t>博道嘉瑞混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007686</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合C</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006277</t>
+          <t>008208</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合A</t>
+          <t>博道嘉泰回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006278</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合C</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>240008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>华宝收益增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005489</t>
+          <t>008793</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合A</t>
+          <t>博道嘉元混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合C</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>210004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>金鹰稳健成长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城策略精选</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>210004</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金鹰稳健成长混合</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>78.03</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009843</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中金泰顺12个月定期开放混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>61.65</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>004166</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>东方价值挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>240008</t>
+          <t>001495</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝收益增长混合</t>
+          <t>东方新价值混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>519158</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>新华趋势领航混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰久福量化股票A</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010121</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰久福量化股票C</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010147</t>
+          <t>006277</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>博道嘉兴一年持有期混合</t>
+          <t>中金瑞和灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.39</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>000242</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>景顺长城策略精选</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>005489</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>中金衡优灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>004301</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>国寿安保稳信混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001294</t>
+          <t>004258</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新华战略新兴产业灵活配置混合</t>
+          <t>国寿安保稳嘉混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>002162</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>东方新价值混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>008468</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>博道嘉瑞混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>003582</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>中金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>52.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方新价值混合A</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002162</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方新价值混合C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>350005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>天治中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>519158</t>
+          <t>007686</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>新华趋势领航混合</t>
+          <t>东方价值挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>008794</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>博道嘉元混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>006278</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>中金瑞和灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>10</v>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>008793</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>博道嘉元混合A</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>74.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008794</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博道嘉元混合C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>74.77</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
+          <t>中金衡优灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>350005</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天治中国制造2025灵活配置混合</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>008208</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>博道嘉泰回报混合</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>004259</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>国寿安保稳嘉混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>004302</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>国寿安保稳信混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2806,25 +3636,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>004258</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国寿安保稳嘉混合A</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004259</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国寿安保稳嘉混合C</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>8</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>004301</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国寿安保稳信混合A</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004302</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国寿安保稳信混合C</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>8</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2918,25 +3788,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>005006</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>中金金泽量化精选混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>8</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2974,26 +3864,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>008467</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>博道嘉瑞混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>75.28</t>
-        </is>
-      </c>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>5</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3002,26 +3896,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>008468</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>博道嘉瑞混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>75.28</t>
-        </is>
-      </c>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>5</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3872,7 +3873,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -3904,7 +3904,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -3920,6 +3919,518 @@
       </c>
       <c r="H59" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4436,4 +4437,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4873,4 +4874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4882,7 +4883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4893,17 +4894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4913,14 +4934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.07</v>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4929,14 +4972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.29</v>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4945,14 +5010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.66</v>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4961,13 +5048,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5243,7 +5244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5254,17 +5255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5274,14 +5295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.27</v>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5290,14 +5333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.07</v>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5306,14 +5371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.29</v>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5322,14 +5409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.66</v>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5338,13 +5447,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5680,7 +5681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,17 +5692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5711,14 +5732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5727,14 +5770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.27</v>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5743,14 +5808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.07</v>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5759,14 +5846,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.29</v>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5775,14 +5884,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>58</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.66</v>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5791,13 +5922,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.27</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.29</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>9.66</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.53</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2191,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4949,7 +5288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600966-博汇纸业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.27</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.07</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>4.29</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>9.66</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1868,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5286,1238 +7201,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发策略优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4979</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道嘉兴一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9111</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>240008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝收益增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6838</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4175</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3830</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3830</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3767</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009794</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>太平智选一年定期开放股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2105</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1976</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1407</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1354</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1228</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1205</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.18</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1173</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005489</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>350005</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>天治中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0402</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>